--- a/app/src/main/res/raw/base_dados_superficial.xlsx
+++ b/app/src/main/res/raw/base_dados_superficial.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="89">
   <si>
     <t xml:space="preserve">node_id</t>
   </si>
@@ -59,7 +59,7 @@
     <t xml:space="preserve">O_LITICO</t>
   </si>
   <si>
-    <t xml:space="preserve">FINAL</t>
+    <t xml:space="preserve">CERAMICA</t>
   </si>
   <si>
     <t xml:space="preserve">Resíduos vegetais podem ser acumulados na superfície do solo de duas maneiras: antrópica e natural. Uma acumulação antrópica de resíduos vegetais é resultado direto da ação humana e pode ser intencional ou não. Dentre as acumulações não intencionais estão as áreas de descarte de resíduos de poda urbana. Já a adição periódica de grandes volumes de resíduos vegetais ao solo agrícola, com o objetivo de modificar (melhorar) suas propriedades, caracteriza uma acumulação intencional. Em ambos os casos, a depender do grau de modificação de solo, o mesmo pode passar a ser designado um solo antrópico. Como esses casos ainda são muito pouco expressivos no Brasil, o SiBCS não possui a classe dos Antropossolos.
@@ -135,6 +135,9 @@
     <t xml:space="preserve">Você identificou um horizonte diagnóstico H ou O Hístico!</t>
   </si>
   <si>
+    <t xml:space="preserve">FINAL</t>
+  </si>
+  <si>
     <t xml:space="preserve">A presença de um horizonte diagnóstico H ou O hístico num perfil de solo não significa que seja classificado como Organossolo. Para isso, será preciso analisar a espessura total e profundidade máxima do horizonte diagnóstico H ou O hístico. Tome nota desses dados pois eles serão utilizados na chave para as ordens.
 O horizonte H ou O hístico também pode ser encontrado em subsuperfície, recoberto por seções de material mineral ou material orgânico mais recentes. Verifique se há mais alguma seção do perfil em que o conteúdo de carbono orgânico é ≥ 80 g/kg. Caso haja, avalie se ela(s) atende(m) aos demais critérios para classificação como horizonte H ou O hístico. Tome nota de sua profundidade máxima e da espessura cumulativa de todos os horizontes H ou O hísticos identificados no perfil.</t>
   </si>
@@ -165,7 +168,131 @@
     <t xml:space="preserve">O conteúdo de carbono orgânico da seção superficial do solo é &lt; 6 g/kg?</t>
   </si>
   <si>
+    <t xml:space="preserve">VALOR_4_H20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SB65</t>
+  </si>
+  <si>
     <t xml:space="preserve">A seção superficial inclui todos os horizontes genéticos principais constituídos de material mineral designados com a letra A. Inclui também todos os horizontes genéticos transicionais cujas características se assemelham mais ao horizonte principal sobrejacente A do que ao subjacente B, E, C ou outro. Por exemplo, os horizontes genéticos transicionais AB, AE e AC.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A cor da seção com baixo conteúdo de carbono orgânico possui valor ≥ 4 quando úmida?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALOR_6_AR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A_5CM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A cor da seção com baixo conteúdo de carbono orgânico possui valor ≥ 6 quando seca?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRAOS_SIMPLES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A estrutura da seção com baixo conteúdo de carbono orgânico e cores claras é em grãos simples?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A_FRACO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FRACO_MACICA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A estrutura da seção com baixo conteúdo de carbono orgânico e cores claras é maciça?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRAU_FRACO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A estrutura da seção com baixo conteúdo de carbono orgânico e cores claras possui grau de desenvolvimento fraco?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A saturação por bases da seção superficial do solo com ≥ 6 g/kg de carbono orgânico é ≥ 65%?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CACO3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INEQUACAO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A seção superficial com ≥ 6 g/kg de carbono orgânico e saturação por bases ≥ 65% possui conteúdo de carbonato de cálcio (CaCO3) equivalente ≥ 400 g/kg?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CORG25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A seção superficial com saturação por bases ≥ 65% e conteúdo de carbonato de cálcio (CaCO3) equivalente ≥ 400 g/kg possui conteúdo de carbono orgânico ≥ 25 g/kg?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SB65_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHERNOZEMICO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROEMINENTE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A relação Beta x Corg HzA - Alpha ≥ Argila HzA é atendida?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HUMICO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Você identificou um horizonte diagnóstico superficial A Chernozêmico!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Este item está em construção.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Você identificou um horizonte diagnóstico superficial A Húmico!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Você identificou um horizonte diagnóstico superficial A Proeminente!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A seção rica em carbono orgânico possui vestígios de atividades humanas pretéritas?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FOSFORO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vestígios de atividades humanas pretéritas: artefatos cerâmicos e/ou líticos, ossos, conchas ou vestígios de ação do fogo (carvão e cinzas).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A seção com vestígios de atividades humanas pretéritas possui conteúdo de fósforo extraível ≥ 30 mg/kg?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P20CM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A espessura da seção com vestígios de atividades humanas pretéritas e rica em fósforo extraível é ≥ 20 cm?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANTROPICO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Você identificou um horizonte diagnóstico superficial A Antrópico!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A presença de um horizonte diagnóstico superficial A antrópico não é suficiente para identificar a classe de solo. Isso porque o SiBCS não possui uma classe para solos altamente antropizados. Você terá que identificar os horizontes diagnósticos subsuperficiais para identificar a classe de solo.
+Solos altamente antropizados podem ser classificados utilizando o sistema internacional WRB. Nele, os solos cujas características são determinadas pela ação humana podem ser classificados como Technosols ou Anthrosols.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A espessura da seção superficial do solo é &lt; 5 cm?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A_MODERADO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Você identificou um horizonte diagnóstico superficial A Fraco!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Você identificou um horizonte diagnóstico superficial A Moderado!</t>
   </si>
 </sst>
 </file>
@@ -175,7 +302,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -197,16 +324,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -251,7 +368,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -260,19 +377,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -293,17 +402,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
+      <selection pane="bottomLeft" activeCell="E53" activeCellId="0" sqref="E53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="17.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="17.32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="49.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="27.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="24.66"/>
@@ -311,7 +420,7 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="6" style="1" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -328,7 +437,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -345,7 +454,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="125.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -362,7 +471,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
@@ -379,7 +488,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
         <v>16</v>
       </c>
@@ -396,7 +505,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="48.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
         <v>19</v>
       </c>
@@ -413,7 +522,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
         <v>15</v>
       </c>
@@ -430,7 +539,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
         <v>22</v>
       </c>
@@ -447,7 +556,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
         <v>29</v>
       </c>
@@ -464,7 +573,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
         <v>30</v>
       </c>
@@ -481,7 +590,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
         <v>25</v>
       </c>
@@ -489,101 +598,392 @@
         <v>36</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D12" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E12" s="3"/>
-    </row>
-    <row r="13" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="B13" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="B14" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="31.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C15" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E18" s="3"/>
+    </row>
+    <row r="19" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E19" s="3"/>
+    </row>
+    <row r="20" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E20" s="3"/>
+    </row>
+    <row r="21" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E21" s="3"/>
+    </row>
+    <row r="22" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="E22" s="3"/>
+    </row>
+    <row r="23" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="5"/>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="5"/>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="5"/>
+      <c r="E23" s="3"/>
+    </row>
+    <row r="24" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E24" s="3"/>
+    </row>
+    <row r="25" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E25" s="3"/>
+    </row>
+    <row r="26" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E30" s="3"/>
+    </row>
+    <row r="31" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E31" s="3"/>
+    </row>
+    <row r="32" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E33" s="3"/>
+    </row>
+    <row r="34" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E34" s="3"/>
+    </row>
+    <row r="35" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>73</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
